--- a/template/perfildedistribuicao.xlsx
+++ b/template/perfildedistribuicao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="analise" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -133,11 +133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142558840"/>
-        <c:axId val="2125065688"/>
+        <c:axId val="2093981192"/>
+        <c:axId val="2101703592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142558840"/>
+        <c:axId val="2093981192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17.0"/>
@@ -149,14 +149,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125065688"/>
+        <c:crossAx val="2101703592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125065688"/>
+        <c:axId val="2101703592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -168,7 +168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142558840"/>
+        <c:crossAx val="2093981192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -670,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -718,6 +718,18 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
